--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4B9F2-43B6-4D66-B3EF-DD2262AD4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF81894-6864-4AC0-B241-7A2F5B74D131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15312" yWindow="1044" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2952" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>mapName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transInfoShowName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapLevelTrans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,10 +412,11 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -421,10 +430,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -438,10 +450,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -454,7 +469,10 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF81894-6864-4AC0-B241-7A2F5B74D131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460667AE-4CAE-4B50-8063-A9D3B80C89F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2952" windowWidth="13752" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>MapLevelTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapBgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbienceLoop_Combat_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -412,11 +420,11 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="26.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,10 +441,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -453,10 +464,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -472,7 +486,10 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460667AE-4CAE-4B50-8063-A9D3B80C89F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F3FD2F-B5A3-4816-9C9D-D03CC3551CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="2796" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>AmbienceLoop_Combat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextCampId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,25 +449,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F3FD2F-B5A3-4816-9C9D-D03CC3551CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F557CE3-BE15-415F-8A7B-F6D930107BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="2796" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="1992" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>nextCampId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultInitPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[38,24,25,42]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,11 +428,11 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="26.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -444,10 +452,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,10 +478,13 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -489,7 +503,10 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F557CE3-BE15-415F-8A7B-F6D930107BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13890094-5D51-461B-B7A8-A3E5F41896EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="1992" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="-660" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13890094-5D51-461B-B7A8-A3E5F41896EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38B159-2BD0-41AB-9EA8-D74D5E661D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="-660" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[38,24,25,42]</t>
+    <t>[38,24,25,42,5,41]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,19 +420,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="26.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="26.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38B159-2BD0-41AB-9EA8-D74D5E661D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6897B-6047-40D4-8449-57E15B2E98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[38,24,25,42,5,41]</t>
+    <t>[38,4,25,42,5,41]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6897B-6047-40D4-8449-57E15B2E98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646193C9-DCDB-413C-A77D-1AF4312BEB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>[38,4,25,42,5,41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,22 +425,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="26.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="26.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,10 +463,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,10 +492,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -507,6 +521,9 @@
         <v>13</v>
       </c>
       <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646193C9-DCDB-413C-A77D-1AF4312BEB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC257C0-C33B-4746-867C-F016C916DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,6 +531,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC257C0-C33B-4746-867C-F016C916DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73498E38-F78D-44F4-9567-1A57DA03CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -507,13 +507,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73498E38-F78D-44F4-9567-1A57DA03CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87CCE3-C3DF-4E11-8EED-51BBB3740F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="792" yWindow="1044" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87CCE3-C3DF-4E11-8EED-51BBB3740F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A344DBF-F8FF-4EA0-BC41-01BB09CF5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="1044" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>FinalLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cameraPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-10,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -440,11 +448,11 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="26.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="26.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,10 +478,13 @@
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -499,10 +510,13 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -527,11 +541,14 @@
       <c r="H3" s="2">
         <v>720</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -556,7 +573,10 @@
       <c r="H4" s="2">
         <v>720</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87CCE3-C3DF-4E11-8EED-51BBB3740F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327D780-9264-4224-B66D-93ECD1A45047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="1044" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,16 +435,16 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="26.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="8" width="26.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -525,13 +525,13 @@
         <v>13</v>
       </c>
       <c r="H3" s="2">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327D780-9264-4224-B66D-93ECD1A45047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5C0F5-469C-4B5C-BD71-C3E1BEEFAD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>FinalLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cameraPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-10,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,22 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="8" width="26.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="26.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,13 +475,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,13 +507,16 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -524,14 +538,17 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -553,10 +570,13 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5C0F5-469C-4B5C-BD71-C3E1BEEFAD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3421C4-AD71-4389-89F9-8BACC67A1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,9 @@
   <si>
     <t>[-10,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6,22,1]</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,12 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,19 +452,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="26.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="9" width="26.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -535,8 +547,8 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -548,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3421C4-AD71-4389-89F9-8BACC67A1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF24EB6-1D83-4E32-848B-45FD749F44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,19 +452,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="9" width="26.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="26.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -554,13 +554,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3421C4-AD71-4389-89F9-8BACC67A1079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD46B3F4-5DED-4E5C-BB58-645FF16CA1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>[5,6,22,1]</t>
+  </si>
+  <si>
+    <t>MapLevelTrans_CutScene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,7 +456,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF24EB6-1D83-4E32-848B-45FD749F44EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A025C-1EA5-4DFB-B097-1AC4F8DBDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>[5,6,22,1]</t>
+  </si>
+  <si>
+    <t>MapLevelTrans_CutScene1</t>
   </si>
 </sst>
 </file>
@@ -452,19 +455,19 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="26.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="9" width="26.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -560,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A025C-1EA5-4DFB-B097-1AC4F8DBDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDF817A-4FE9-41EB-9303-35DE4D98CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDF817A-4FE9-41EB-9303-35DE4D98CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0842F-5DFD-4577-BCE2-E8E42B4CCECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,13 @@
   </si>
   <si>
     <t>MapLevelTrans_CutScene1</t>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventIds</t>
   </si>
 </sst>
 </file>
@@ -452,22 +459,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="9" width="26.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="10" width="26.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,13 +500,16 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -525,13 +535,16 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -556,14 +569,17 @@
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
         <v>360</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -588,10 +604,13 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0842F-5DFD-4577-BCE2-E8E42B4CCECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C785A5E-DB9B-419E-9C58-72B5323BB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FinalLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cameraPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,14 +102,68 @@
     <t>[5,6,22,1]</t>
   </si>
   <si>
+    <t>eventIds</t>
+  </si>
+  <si>
+    <t>FinalLevel_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MapLevelTrans_CutScene1</t>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalLevel_02</t>
+  </si>
+  <si>
+    <t>[179,177,176,175,155]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,-23]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalLevel_03</t>
+  </si>
+  <si>
+    <t>[107,106,118,130,108,103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-15,-2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalLevel_04</t>
+  </si>
+  <si>
+    <t>[80,69,79,71,70,72]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-12,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[221,222,223,224,225,226,227,228,229,230,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[921,922,923]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[931,932,933,934]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[941,942,943,944]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +205,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +240,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,7 +545,9 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="10" width="26.44140625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="26.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -544,73 +621,178 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2">
-        <v>360</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5">
+        <v>60</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="7">
+        <v>60</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C785A5E-DB9B-419E-9C58-72B5323BB65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84923E99-FD93-4EDB-9078-A661BDA89615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,6 @@
     <t>FinalLevel_03</t>
   </si>
   <si>
-    <t>[107,106,118,130,108,103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[-15,-2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,10 @@
   </si>
   <si>
     <t>[941,942,943,944]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[107,106,121,130,108,103]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3">
         <v>10</v>
@@ -682,10 +682,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="5">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
@@ -711,16 +711,16 @@
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="7">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -731,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -746,16 +746,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -787,10 +787,10 @@
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84923E99-FD93-4EDB-9078-A661BDA89615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6672041-D74D-4F72-94A4-20EB16DECF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="7">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -755,7 +755,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="1">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -790,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6672041-D74D-4F72-94A4-20EB16DECF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222B861-3113-4252-9C5A-1079E95B0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222B861-3113-4252-9C5A-1079E95B0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788B2EA-6703-4039-BD79-FE191732F953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>[107,106,121,130,108,103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,13 +553,15 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="26.44140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,8 +595,11 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,8 +633,11 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -653,10 +669,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -690,8 +709,11 @@
       <c r="K4" s="5">
         <v>1</v>
       </c>
+      <c r="L4" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -725,8 +747,11 @@
       <c r="K5" s="7">
         <v>2</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -760,8 +785,11 @@
       <c r="K6" s="1">
         <v>3</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -794,6 +822,9 @@
       </c>
       <c r="K7" s="2">
         <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788B2EA-6703-4039-BD79-FE191732F953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4144C-863D-4764-A598-1DEA295D23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,18 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[921,922,923]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[931,932,933,934]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[941,942,943,944]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[107,106,121,130,108,103]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +159,18 @@
   </si>
   <si>
     <t>endId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[601,611,621,921,922,923]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[701,301,931,932,933,934]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[801,811,821,941,942,943,944]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -701,16 +701,16 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" s="5">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -733,22 +733,22 @@
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" s="7">
-        <v>420</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -777,16 +777,16 @@
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4144C-863D-4764-A598-1DEA295D23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1FC936-28F1-4841-A109-880423152F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,10 +666,10 @@
         <v>31</v>
       </c>
       <c r="J3" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>33</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>33</v>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>33</v>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>33</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1FC936-28F1-4841-A109-880423152F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FEBEB-D5BE-4318-8DBA-25A4E8410848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>[801,811,821,941,942,943,944]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapLevelTrans_CutScene2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapLevelTrans_CutScene3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapLevelTrans_CutScene4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,23 +557,23 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="26.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="26.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -675,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -689,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -713,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -727,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
@@ -751,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -765,7 +777,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -782,14 +794,14 @@
       <c r="J6" s="1">
         <v>15</v>
       </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054FEBEB-D5BE-4318-8DBA-25A4E8410848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE33647-7F18-4BED-8684-4D942063E1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,23 +557,23 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="26.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="30.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="J3" s="3">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -716,7 +716,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="5">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="7">
-        <v>15</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -792,7 +792,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="1">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>33</v>
@@ -801,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE33647-7F18-4BED-8684-4D942063E1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0EAF3-97E7-4B99-84E4-95D4D31567BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0EAF3-97E7-4B99-84E4-95D4D31567BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8BDFA-8FE5-4314-B9F0-850454FDED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[601,611,621,921,922,923]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[701,301,931,932,933,934]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>MapLevelTrans_CutScene4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[601,611,621,631,921,922,923]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -713,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J4" s="5">
         <v>360</v>
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
@@ -751,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="7">
         <v>420</v>
@@ -777,7 +777,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -789,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1">
         <v>480</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8BDFA-8FE5-4314-B9F0-850454FDED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A50A7-0CE3-4BE0-857C-6339D5F33279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>31</v>
       </c>
       <c r="J3" s="3">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A50A7-0CE3-4BE0-857C-6339D5F33279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED075CA-B88F-4B18-B5AC-D15EF81187B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>[601,611,621,631,921,922,923]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-10,55]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -651,7 +655,7 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -672,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>31</v>
@@ -689,7 +693,7 @@
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED075CA-B88F-4B18-B5AC-D15EF81187B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F24836-6E64-4F16-8B27-4749C8AC1076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,17 +120,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3,-23]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FinalLevel_03</t>
   </si>
   <si>
-    <t>[-15,-2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FinalLevel_04</t>
   </si>
   <si>
@@ -138,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[-12,12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[101]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +175,18 @@
   </si>
   <si>
     <t>[-10,55]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,-36]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-22,-2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-2.4,17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3">
         <v>300</v>
@@ -688,12 +688,12 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -714,10 +714,10 @@
         <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" s="5">
         <v>360</v>
@@ -726,36 +726,36 @@
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="J5" s="7">
         <v>420</v>
@@ -764,42 +764,42 @@
         <v>2</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1">
         <v>480</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
@@ -831,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F24836-6E64-4F16-8B27-4749C8AC1076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112207C-E423-48DA-BD3D-48F3B97CD547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[701,301,931,932,933,934]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[801,811,821,941,942,943,944]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MapLevelTrans_CutScene2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[601,611,621,631,921,922,923]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[-10,55]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +175,18 @@
   </si>
   <si>
     <t>[-2.4,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[601,611,621,631,921,922,923,924,925]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[701,301,931,932,933,934,935]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[801,811,821,941,942,943,944,945]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -714,10 +714,10 @@
         <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="5">
         <v>360</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
@@ -743,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
@@ -752,10 +752,10 @@
         <v>29</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="7">
         <v>420</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -781,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -790,10 +790,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J6" s="1">
         <v>480</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112207C-E423-48DA-BD3D-48F3B97CD547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF956156-FDC2-46B3-BFE5-2CF5D74758E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF956156-FDC2-46B3-BFE5-2CF5D74758E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6896985-7F45-42B5-8F94-D9601E00DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Map_Data.xlsx
+++ b/GameDesign/ExcelData/Map_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6896985-7F45-42B5-8F94-D9601E00DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9A2ED-EC19-4563-93C4-0503200529EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
